--- a/teaching/traditional_assets/database/data/hong_kong/hong_kong_insurance_life.xlsx
+++ b/teaching/traditional_assets/database/data/hong_kong/hong_kong_insurance_life.xlsx
@@ -591,121 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.7114999999999999</v>
+        <v>0.3055</v>
       </c>
       <c r="E2">
-        <v>0.238</v>
+        <v>-0.13485</v>
+      </c>
+      <c r="F2">
+        <v>0.0194</v>
       </c>
       <c r="G2">
-        <v>0.08640579087995619</v>
+        <v>0.1501736054222039</v>
       </c>
       <c r="H2">
-        <v>0.08640579087995619</v>
+        <v>0.1501736054222039</v>
       </c>
       <c r="I2">
-        <v>0.1199367032566389</v>
+        <v>0.1233876453756994</v>
       </c>
       <c r="J2">
-        <v>0.1091275575752041</v>
+        <v>0.1077179503346619</v>
       </c>
       <c r="K2">
-        <v>5641.679999999999</v>
+        <v>6183.8</v>
       </c>
       <c r="L2">
-        <v>0.08351301541718167</v>
+        <v>0.08105256397317211</v>
       </c>
       <c r="M2">
-        <v>1749.8</v>
+        <v>2647.3</v>
       </c>
       <c r="N2">
-        <v>0.01278050013256719</v>
+        <v>0.01697886188456196</v>
       </c>
       <c r="O2">
-        <v>0.3101558401043661</v>
+        <v>0.4281024612697694</v>
       </c>
       <c r="P2">
-        <v>1707.6</v>
+        <v>2044.3</v>
       </c>
       <c r="Q2">
-        <v>0.01247227227475811</v>
+        <v>0.01311142951331923</v>
       </c>
       <c r="R2">
-        <v>0.3026757986982601</v>
+        <v>0.3305896050971894</v>
       </c>
       <c r="S2">
-        <v>42.19999999999991</v>
+        <v>603</v>
       </c>
       <c r="T2">
-        <v>0.02411704194765111</v>
+        <v>0.2277792467797378</v>
       </c>
       <c r="U2">
-        <v>6118.6</v>
+        <v>9336.200000000001</v>
       </c>
       <c r="V2">
-        <v>0.04469011779124794</v>
+        <v>0.05987914113498558</v>
       </c>
       <c r="W2">
-        <v>0.118904316959858</v>
+        <v>0.06780475338614873</v>
       </c>
       <c r="X2">
-        <v>0.08590075461843458</v>
+        <v>0.07539184375369752</v>
       </c>
       <c r="Y2">
-        <v>0.03300356234142343</v>
+        <v>-0.007587090367548788</v>
       </c>
       <c r="Z2">
-        <v>1.14996796502871</v>
+        <v>1.073007072867838</v>
       </c>
       <c r="AA2">
-        <v>0.1211364122684002</v>
+        <v>0.09750796665805683</v>
       </c>
       <c r="AB2">
-        <v>0.07614448261389092</v>
+        <v>0.06119126532424467</v>
       </c>
       <c r="AC2">
-        <v>0.04629585480408627</v>
+        <v>0.03449238768610417</v>
       </c>
       <c r="AD2">
-        <v>17427.2</v>
+        <v>20666.2</v>
       </c>
       <c r="AE2">
-        <v>877.1798992469407</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>18304.37989924694</v>
+        <v>20666.2</v>
       </c>
       <c r="AG2">
-        <v>12185.77989924694</v>
+        <v>11330</v>
       </c>
       <c r="AH2">
-        <v>0.1179283738587431</v>
+        <v>0.1170335184014824</v>
       </c>
       <c r="AI2">
-        <v>0.2213497449469795</v>
+        <v>0.2234058193485339</v>
       </c>
       <c r="AJ2">
-        <v>0.08173028751043625</v>
+        <v>0.06774395297027039</v>
       </c>
       <c r="AK2">
-        <v>0.159133604845816</v>
+        <v>0.1362286428837668</v>
       </c>
       <c r="AL2">
-        <v>532.86</v>
+        <v>626.4</v>
       </c>
       <c r="AM2">
-        <v>532.86</v>
+        <v>626.4</v>
       </c>
       <c r="AN2">
-        <v>2.013169142619504</v>
+        <v>2.100928156800553</v>
       </c>
       <c r="AO2">
-        <v>14.91179671958863</v>
+        <v>15.02825670498084</v>
       </c>
       <c r="AP2">
-        <v>1.407686608974302</v>
+        <v>1.151809041650147</v>
       </c>
       <c r="AQ2">
-        <v>14.91179671958863</v>
+        <v>15.02825670498084</v>
       </c>
     </row>
     <row r="3">
@@ -716,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Yunfeng Financial Group Limited (SEHK:376)</t>
+          <t>AIA Group Limited (SEHK:1299)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -724,119 +727,119 @@
           <t>Insurance (Life)</t>
         </is>
       </c>
-      <c r="D3">
-        <v>1.233</v>
+      <c r="F3">
+        <v>0.0194</v>
       </c>
       <c r="G3">
-        <v>-0.03475103734439834</v>
+        <v>0.2161572559121818</v>
       </c>
       <c r="H3">
-        <v>-0.03475103734439834</v>
+        <v>0.2161572559121818</v>
       </c>
       <c r="I3">
-        <v>0.07244655894223734</v>
+        <v>0.17326927986261</v>
       </c>
       <c r="J3">
-        <v>0.07244655894223734</v>
+        <v>0.1493438183407055</v>
       </c>
       <c r="K3">
-        <v>8.18</v>
+        <v>5486</v>
       </c>
       <c r="L3">
-        <v>0.01414246196403873</v>
+        <v>0.1273178769523544</v>
       </c>
       <c r="M3">
-        <v>14.1</v>
+        <v>1968</v>
       </c>
       <c r="N3">
-        <v>0.009543793150128604</v>
+        <v>0.01331253475261549</v>
       </c>
       <c r="O3">
-        <v>1.723716381418093</v>
+        <v>0.3587313160772876</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>1965</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.01329224125451699</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0.3581844695588771</v>
       </c>
       <c r="S3">
-        <v>14.1</v>
+        <v>3</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0.001524390243902439</v>
       </c>
       <c r="U3">
-        <v>463.3</v>
+        <v>5027</v>
       </c>
       <c r="V3">
-        <v>0.313591444429403</v>
+        <v>0.03400513831371854</v>
       </c>
       <c r="W3">
-        <v>0.01625919300337905</v>
+        <v>0.1099883716267693</v>
       </c>
       <c r="X3">
-        <v>0.08590075461843458</v>
+        <v>0.06319627948550255</v>
       </c>
       <c r="Y3">
-        <v>-0.06964156161505553</v>
+        <v>0.04679209214126677</v>
       </c>
       <c r="Z3">
-        <v>2.416196017167167</v>
+        <v>0.7740770681756939</v>
       </c>
       <c r="AA3">
-        <v>0.1750450871737002</v>
+        <v>0.1156036250513368</v>
       </c>
       <c r="AB3">
-        <v>0.07614448261389092</v>
+        <v>0.06073929718316007</v>
       </c>
       <c r="AC3">
-        <v>0.09890060455980931</v>
+        <v>0.05486432786817669</v>
       </c>
       <c r="AD3">
-        <v>322.5</v>
+        <v>9394</v>
       </c>
       <c r="AE3">
-        <v>29.48455153904963</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>351.9845515390496</v>
+        <v>9394</v>
       </c>
       <c r="AG3">
-        <v>-111.3154484609504</v>
+        <v>4367</v>
       </c>
       <c r="AH3">
-        <v>0.1924059931756433</v>
+        <v>0.05974891969831693</v>
       </c>
       <c r="AI3">
-        <v>0.1466123027630305</v>
+        <v>0.1409473510480277</v>
       </c>
       <c r="AJ3">
-        <v>-0.08148503570700721</v>
+        <v>0.02869296230689577</v>
       </c>
       <c r="AK3">
-        <v>-0.05745359278995358</v>
+        <v>0.0708675473045341</v>
       </c>
       <c r="AL3">
-        <v>8.56</v>
+        <v>290</v>
       </c>
       <c r="AM3">
-        <v>8.56</v>
+        <v>290</v>
       </c>
       <c r="AN3">
-        <v>6.36094674556213</v>
+        <v>1.226530878704792</v>
       </c>
       <c r="AO3">
-        <v>4.007009345794392</v>
+        <v>25.7448275862069</v>
       </c>
       <c r="AP3">
-        <v>-2.195570975561151</v>
+        <v>0.5701788745267006</v>
       </c>
       <c r="AQ3">
-        <v>4.007009345794392</v>
+        <v>25.7448275862069</v>
       </c>
     </row>
     <row r="4">
@@ -847,7 +850,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AIA Group Limited (SEHK:1299)</t>
+          <t>Yunfeng Financial Group Limited (SEHK:376)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -855,116 +858,119 @@
           <t>Insurance (Life)</t>
         </is>
       </c>
+      <c r="D4">
+        <v>0.479</v>
+      </c>
+      <c r="E4">
+        <v>-0.186</v>
+      </c>
       <c r="G4">
-        <v>0.1020169799028756</v>
+        <v>0.09403058707449433</v>
       </c>
       <c r="H4">
-        <v>0.1020169799028756</v>
+        <v>0.09403058707449433</v>
       </c>
       <c r="I4">
-        <v>0.1652165665164537</v>
+        <v>0.1003453379378392</v>
       </c>
       <c r="J4">
-        <v>0.1350062758074602</v>
+        <v>0.1001114411960276</v>
       </c>
       <c r="K4">
-        <v>4555.7</v>
+        <v>34.5</v>
       </c>
       <c r="L4">
-        <v>0.1182441814892584</v>
+        <v>0.03404045387271831</v>
       </c>
       <c r="M4">
-        <v>1656.9</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.01309597391080289</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>0.3636982242026472</v>
+        <v>-0</v>
       </c>
       <c r="P4">
-        <v>1628.8</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.01287387428687051</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>0.3575301270935312</v>
+        <v>-0</v>
       </c>
       <c r="S4">
-        <v>28.09999999999991</v>
-      </c>
-      <c r="T4">
-        <v>0.01695938197839333</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>2188</v>
+        <v>307.4</v>
       </c>
       <c r="V4">
-        <v>0.01729373584213696</v>
+        <v>0.191359561752988</v>
       </c>
       <c r="W4">
-        <v>0.118904316959858</v>
+        <v>0.02872127872127872</v>
       </c>
       <c r="X4">
-        <v>0.07828992142029356</v>
+        <v>0.07539184375369752</v>
       </c>
       <c r="Y4">
-        <v>0.04061439553956445</v>
+        <v>-0.0466705650324188</v>
       </c>
       <c r="Z4">
-        <v>0.8972650459683771</v>
+        <v>0.9557714070162202</v>
       </c>
       <c r="AA4">
-        <v>0.1211364122684002</v>
+        <v>0.09568365301034884</v>
       </c>
       <c r="AB4">
-        <v>0.07484055746431391</v>
+        <v>0.06119126532424467</v>
       </c>
       <c r="AC4">
-        <v>0.04629585480408627</v>
+        <v>0.03449238768610417</v>
       </c>
       <c r="AD4">
-        <v>8949</v>
+        <v>560.5</v>
       </c>
       <c r="AE4">
-        <v>465.2632345536234</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>9414.263234553624</v>
+        <v>560.5</v>
       </c>
       <c r="AG4">
-        <v>7226.263234553624</v>
+        <v>253.1</v>
       </c>
       <c r="AH4">
-        <v>0.06925610116067343</v>
+        <v>0.2586644515206055</v>
       </c>
       <c r="AI4">
-        <v>0.1576076767355386</v>
+        <v>0.2160838891244844</v>
       </c>
       <c r="AJ4">
-        <v>0.05402972663113647</v>
+        <v>0.1361118580263512</v>
       </c>
       <c r="AK4">
-        <v>0.1255774742496741</v>
+        <v>0.1106931992127706</v>
       </c>
       <c r="AL4">
-        <v>246.5</v>
+        <v>18.7</v>
       </c>
       <c r="AM4">
-        <v>246.5</v>
+        <v>18.7</v>
       </c>
       <c r="AN4">
-        <v>1.341176470588235</v>
+        <v>5</v>
       </c>
       <c r="AO4">
-        <v>25.50709939148073</v>
+        <v>5.438502673796791</v>
       </c>
       <c r="AP4">
-        <v>1.082991867299157</v>
+        <v>2.257805530776093</v>
       </c>
       <c r="AQ4">
-        <v>25.50709939148073</v>
+        <v>5.438502673796791</v>
       </c>
     </row>
     <row r="5">
@@ -984,121 +990,121 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.19</v>
+        <v>0.132</v>
       </c>
       <c r="E5">
-        <v>0.238</v>
+        <v>-0.0837</v>
       </c>
       <c r="G5">
-        <v>0.06772660484670383</v>
+        <v>0.06361987126916673</v>
       </c>
       <c r="H5">
-        <v>0.06772660484670383</v>
+        <v>0.06361987126916673</v>
       </c>
       <c r="I5">
-        <v>0.05957893917257143</v>
+        <v>0.05734486443500087</v>
       </c>
       <c r="J5">
-        <v>0.05436467483027541</v>
+        <v>0.0435492087599369</v>
       </c>
       <c r="K5">
-        <v>1077.8</v>
+        <v>663.3</v>
       </c>
       <c r="L5">
-        <v>0.03788640406071386</v>
+        <v>0.02060501006486245</v>
       </c>
       <c r="M5">
-        <v>78.8</v>
+        <v>679.3</v>
       </c>
       <c r="N5">
-        <v>0.008839531101015199</v>
+        <v>0.1048237763101043</v>
       </c>
       <c r="O5">
-        <v>0.07311189460011133</v>
+        <v>1.024121815166591</v>
       </c>
       <c r="P5">
-        <v>78.8</v>
+        <v>79.3</v>
       </c>
       <c r="Q5">
-        <v>0.008839531101015199</v>
+        <v>0.01223689895685452</v>
       </c>
       <c r="R5">
-        <v>0.07311189460011133</v>
+        <v>0.1195537464194181</v>
       </c>
       <c r="S5">
+        <v>600</v>
+      </c>
+      <c r="T5">
+        <v>0.8832621816575887</v>
+      </c>
+      <c r="U5">
+        <v>4001.8</v>
+      </c>
+      <c r="V5">
+        <v>0.6175236096537251</v>
+      </c>
+      <c r="W5">
+        <v>0.06780475338614873</v>
+      </c>
+      <c r="X5">
+        <v>0.1311202396068598</v>
+      </c>
+      <c r="Y5">
+        <v>-0.06331548622071108</v>
+      </c>
+      <c r="Z5">
+        <v>2.23902958135394</v>
+      </c>
+      <c r="AA5">
+        <v>0.09750796665805683</v>
+      </c>
+      <c r="AB5">
+        <v>0.0648457138682694</v>
+      </c>
+      <c r="AC5">
+        <v>0.03266225278978743</v>
+      </c>
+      <c r="AD5">
+        <v>10711.7</v>
+      </c>
+      <c r="AE5">
         <v>0</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>3467.3</v>
-      </c>
-      <c r="V5">
-        <v>0.388950586123731</v>
-      </c>
-      <c r="W5">
-        <v>0.1246631273349758</v>
-      </c>
-      <c r="X5">
-        <v>0.1193258739615823</v>
-      </c>
-      <c r="Y5">
-        <v>0.005337253373393441</v>
-      </c>
-      <c r="Z5">
-        <v>1.827581993484357</v>
-      </c>
-      <c r="AA5">
-        <v>0.0993559008014436</v>
-      </c>
-      <c r="AB5">
-        <v>0.07616548943610049</v>
-      </c>
-      <c r="AC5">
-        <v>0.02319041136534311</v>
-      </c>
-      <c r="AD5">
-        <v>8155.7</v>
-      </c>
-      <c r="AE5">
-        <v>382.4321131542678</v>
-      </c>
       <c r="AF5">
-        <v>8538.132113154268</v>
+        <v>10711.7</v>
       </c>
       <c r="AG5">
-        <v>5070.832113154268</v>
+        <v>6709.900000000001</v>
       </c>
       <c r="AH5">
-        <v>0.4892174462738472</v>
+        <v>0.62305942845842</v>
       </c>
       <c r="AI5">
-        <v>0.4152518944865412</v>
+        <v>0.4604746736135292</v>
       </c>
       <c r="AJ5">
-        <v>0.3625821733889869</v>
+        <v>0.5086995746874597</v>
       </c>
       <c r="AK5">
-        <v>0.2966434179828257</v>
+        <v>0.3483762103787545</v>
       </c>
       <c r="AL5">
-        <v>277.8</v>
+        <v>317.7</v>
       </c>
       <c r="AM5">
-        <v>277.8</v>
+        <v>317.7</v>
       </c>
       <c r="AN5">
-        <v>4.218320057929037</v>
+        <v>5.185757164988382</v>
       </c>
       <c r="AO5">
-        <v>5.84629229661627</v>
+        <v>5.810513062637709</v>
       </c>
       <c r="AP5">
-        <v>2.622753756674391</v>
+        <v>3.24840240123935</v>
       </c>
       <c r="AQ5">
-        <v>5.84629229661627</v>
+        <v>5.810513062637709</v>
       </c>
     </row>
   </sheetData>
